--- a/data/trans_bre/P1402-Provincia-trans_bre.xlsx
+++ b/data/trans_bre/P1402-Provincia-trans_bre.xlsx
@@ -637,7 +637,7 @@
         <v>-1.874982202340378</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>-3.227053653287427</v>
+        <v>-3.227053653287429</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>-0.002951116839087669</v>
@@ -649,7 +649,7 @@
         <v>-0.2600044253744881</v>
       </c>
       <c r="J4" s="6" t="n">
-        <v>-0.2919590290580606</v>
+        <v>-0.2919590290580607</v>
       </c>
     </row>
     <row r="5">
@@ -660,28 +660,28 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>-3.345049825848211</v>
+        <v>-3.12368342604169</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>-5.234950264082745</v>
+        <v>-5.608907708072318</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>-6.040873209718285</v>
+        <v>-5.948515422293339</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>-7.000579214671743</v>
+        <v>-7.48916198579595</v>
       </c>
       <c r="G5" s="6" t="n">
-        <v>-0.6140880066788051</v>
+        <v>-0.5940504699146824</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>-0.5311650468510374</v>
+        <v>-0.5572983862617283</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>-0.6451164102559384</v>
+        <v>-0.6527405910623347</v>
       </c>
       <c r="J5" s="6" t="n">
-        <v>-0.5263556392002962</v>
+        <v>-0.5285173149766662</v>
       </c>
     </row>
     <row r="6">
@@ -692,28 +692,28 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>3.221139984606611</v>
+        <v>3.518039923542327</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>3.409016882030697</v>
+        <v>3.266161988758416</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>2.116101433968247</v>
+        <v>1.91866900722674</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>0.5871077669709815</v>
+        <v>0.2887888353957787</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>1.504049686844277</v>
+        <v>1.306668629678993</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.8142823592536244</v>
+        <v>0.6772039652834048</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.4306703946852778</v>
+        <v>0.4065528906962572</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>0.06400815965403918</v>
+        <v>0.0445864785514246</v>
       </c>
     </row>
     <row r="7">
@@ -737,7 +737,7 @@
         <v>3.122641271895148</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>0.2974114545981218</v>
+        <v>0.2974114545981232</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.6609154046621094</v>
@@ -749,7 +749,7 @@
         <v>0.4083525337639121</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>0.03727513577619457</v>
+        <v>0.03727513577619475</v>
       </c>
     </row>
     <row r="8">
@@ -760,28 +760,28 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.3444203797103167</v>
+        <v>0.3567334774134971</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.05595233556632961</v>
+        <v>0.3241709695594327</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>-0.4765859378938558</v>
+        <v>-0.936061464925826</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>-3.019489546282067</v>
+        <v>-3.185489845125369</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>0.01786267576723769</v>
+        <v>0.03025639068556214</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>-0.01120552293123855</v>
+        <v>0.002455507325301215</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>-0.05321010209316299</v>
+        <v>-0.1074044102723821</v>
       </c>
       <c r="J8" s="6" t="n">
-        <v>-0.3082663750300371</v>
+        <v>-0.3272119158682353</v>
       </c>
     </row>
     <row r="9">
@@ -792,28 +792,28 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>6.919696237148111</v>
+        <v>6.736426380282174</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>7.939421627892602</v>
+        <v>7.634906082444701</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>6.733155288310128</v>
+        <v>6.710206974239179</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>3.299096243261897</v>
+        <v>3.249455947049482</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>1.788783509756683</v>
+        <v>1.923804273981985</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>1.482721562164639</v>
+        <v>1.342891205011044</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>1.115835459240868</v>
+        <v>1.046280513047344</v>
       </c>
       <c r="J9" s="6" t="n">
-        <v>0.5431014108670448</v>
+        <v>0.5151446371469446</v>
       </c>
     </row>
     <row r="10">
@@ -837,7 +837,7 @@
         <v>2.735640585341867</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>-1.44144140556116</v>
+        <v>-1.441441405561161</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.2001838221999445</v>
@@ -849,7 +849,7 @@
         <v>0.6004715409760322</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>-0.1348538093928373</v>
+        <v>-0.1348538093928374</v>
       </c>
     </row>
     <row r="11">
@@ -860,28 +860,28 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>-2.495391538275009</v>
+        <v>-2.488098541734557</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>-4.835524869759567</v>
+        <v>-4.731361801983081</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>-0.6066210554296092</v>
+        <v>-0.3924593979802581</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>-5.518132486779391</v>
+        <v>-5.284258300698073</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>-0.3457272753892132</v>
+        <v>-0.3214220031561061</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>-0.393397089925938</v>
+        <v>-0.3825373352826489</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>-0.1207687334386269</v>
+        <v>-0.1124137809587735</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>-0.4134252245254793</v>
+        <v>-0.4125968651430569</v>
       </c>
     </row>
     <row r="12">
@@ -892,28 +892,28 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>5.005794318555743</v>
+        <v>4.991628889512651</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>4.710947557722924</v>
+        <v>5.611507685147873</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>6.914589243191346</v>
+        <v>6.587080161545806</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>2.143022003858136</v>
+        <v>2.226517640271753</v>
       </c>
       <c r="G12" s="6" t="n">
-        <v>1.318960734875221</v>
+        <v>1.37975375088353</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.6168720100323102</v>
+        <v>0.7236316661221934</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>2.271028305172527</v>
+        <v>2.141797283518895</v>
       </c>
       <c r="J12" s="6" t="n">
-        <v>0.263661364241163</v>
+        <v>0.2739239349722027</v>
       </c>
     </row>
     <row r="13">
@@ -937,7 +937,7 @@
         <v>-5.245617712119375</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>-1.88014392761346</v>
+        <v>-1.880143927613458</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.1863068418068554</v>
@@ -949,7 +949,7 @@
         <v>-0.4360850493317237</v>
       </c>
       <c r="J13" s="6" t="n">
-        <v>-0.2136745475475319</v>
+        <v>-0.2136745475475316</v>
       </c>
     </row>
     <row r="14">
@@ -960,28 +960,28 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>-2.44257115902341</v>
+        <v>-2.010115050242585</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>-1.508395917270598</v>
+        <v>-1.486973381882162</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>-9.541061199600353</v>
+        <v>-9.476077984979367</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>-5.664716658552282</v>
+        <v>-5.261948844699043</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>-0.4307574279055468</v>
+        <v>-0.3720619833238602</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>-0.2065392550508359</v>
+        <v>-0.2077574213487837</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>-0.6552042574707247</v>
+        <v>-0.6734100462556065</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>-0.4801228699316561</v>
+        <v>-0.4805804472832006</v>
       </c>
     </row>
     <row r="15">
@@ -992,28 +992,28 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>3.64259605496015</v>
+        <v>3.708244611764697</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>5.987113739846317</v>
+        <v>6.312036076268562</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>-1.488402812189162</v>
+        <v>-1.127670772494628</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>1.061916460691009</v>
+        <v>1.232287829670583</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>1.131721410646184</v>
+        <v>1.200895669805327</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>1.345890645775555</v>
+        <v>1.312908281129692</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>-0.1278794706149557</v>
+        <v>-0.1084174249343288</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>0.2097990520417046</v>
+        <v>0.1905477123256471</v>
       </c>
     </row>
     <row r="16">
@@ -1037,7 +1037,7 @@
         <v>2.792571522798265</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>4.487934548718234</v>
+        <v>4.487934548718231</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.7179261699252427</v>
@@ -1049,7 +1049,7 @@
         <v>0.4523119839349957</v>
       </c>
       <c r="J16" s="6" t="n">
-        <v>0.5511927597250812</v>
+        <v>0.5511927597250809</v>
       </c>
     </row>
     <row r="17">
@@ -1060,28 +1060,28 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>-0.9888337237377691</v>
+        <v>-0.733434378428947</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>-2.942477815537699</v>
+        <v>-2.967463305517089</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>-2.395653123199164</v>
+        <v>-2.424140029667477</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>0.1882674755457468</v>
+        <v>0.4444348075390203</v>
       </c>
       <c r="G17" s="6" t="n">
-        <v>-0.1720563557813653</v>
+        <v>-0.1586982401275762</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>-0.2785890994282266</v>
+        <v>-0.2507989403025006</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>-0.3150720148066886</v>
+        <v>-0.3242392703588456</v>
       </c>
       <c r="J17" s="6" t="n">
-        <v>0.01133882748859678</v>
+        <v>0.04002477424348708</v>
       </c>
     </row>
     <row r="18">
@@ -1092,28 +1092,28 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>9.651755733583137</v>
+        <v>9.605876144890416</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>9.00963220638152</v>
+        <v>9.621644941586119</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>7.885661724712971</v>
+        <v>7.512440524431431</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>8.042970096268478</v>
+        <v>8.767255329211988</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>2.464958039439351</v>
+        <v>2.592284650535284</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>1.230477215756544</v>
+        <v>1.505168742729825</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>1.928593162484497</v>
+        <v>1.805706350886617</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>1.33793388009262</v>
+        <v>1.454154266284952</v>
       </c>
     </row>
     <row r="19">
@@ -1137,7 +1137,7 @@
         <v>0.1771416388065883</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>-3.74114470691543</v>
+        <v>-3.741144706915431</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>-0.1591463469903105</v>
@@ -1149,7 +1149,7 @@
         <v>0.02560503633500897</v>
       </c>
       <c r="J19" s="6" t="n">
-        <v>-0.2673031315328041</v>
+        <v>-0.2673031315328042</v>
       </c>
     </row>
     <row r="20">
@@ -1160,28 +1160,28 @@
         </is>
       </c>
       <c r="C20" s="5" t="n">
-        <v>-4.364859096280411</v>
+        <v>-3.947061604542267</v>
       </c>
       <c r="D20" s="5" t="n">
-        <v>-2.175451435975152</v>
+        <v>-2.042995557305712</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>-4.320173761901676</v>
+        <v>-4.144772280976666</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>-8.379679910970257</v>
+        <v>-7.988459034024506</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>-0.6462826653209697</v>
+        <v>-0.6097381228183786</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>-0.2270645042322554</v>
+        <v>-0.2220941641589299</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>-0.4878877030257262</v>
+        <v>-0.459028815981795</v>
       </c>
       <c r="J20" s="6" t="n">
-        <v>-0.4896516390785534</v>
+        <v>-0.4989647802750741</v>
       </c>
     </row>
     <row r="21">
@@ -1192,28 +1192,28 @@
         </is>
       </c>
       <c r="C21" s="5" t="n">
-        <v>2.830321041599362</v>
+        <v>2.792135815302526</v>
       </c>
       <c r="D21" s="5" t="n">
-        <v>7.586423865267171</v>
+        <v>7.852967008701126</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>4.761679805576949</v>
+        <v>5.212888864620046</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>0.1083664821361967</v>
+        <v>0.2287529236783282</v>
       </c>
       <c r="G21" s="6" t="n">
-        <v>0.8907506547456935</v>
+        <v>0.9568457411094975</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>1.485077031693305</v>
+        <v>1.395738322390257</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.8962348945452049</v>
+        <v>1.149896952364399</v>
       </c>
       <c r="J21" s="6" t="n">
-        <v>0.02142959076291558</v>
+        <v>0.01940399659024579</v>
       </c>
     </row>
     <row r="22">
@@ -1237,7 +1237,7 @@
         <v>-2.520119685778115</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>-2.90745156480593</v>
+        <v>-2.907451564805932</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.1844156034929342</v>
@@ -1249,7 +1249,7 @@
         <v>-0.2227752062207383</v>
       </c>
       <c r="J22" s="6" t="n">
-        <v>-0.3042974367534305</v>
+        <v>-0.3042974367534307</v>
       </c>
     </row>
     <row r="23">
@@ -1260,28 +1260,28 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>-1.860636757556291</v>
+        <v>-1.570415978950439</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>-2.975577999045706</v>
+        <v>-2.592916588551787</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>-6.335379968897342</v>
+        <v>-6.077391466017446</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>-5.723585293504312</v>
+        <v>-5.678079802116033</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>-0.2391028931634883</v>
+        <v>-0.2063736388388134</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>-0.3058215904760762</v>
+        <v>-0.2614929855942564</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>-0.4782213025702123</v>
+        <v>-0.4695239112566723</v>
       </c>
       <c r="J23" s="6" t="n">
-        <v>-0.4950720154658978</v>
+        <v>-0.4941234965104795</v>
       </c>
     </row>
     <row r="24">
@@ -1292,28 +1292,28 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>3.985635018585695</v>
+        <v>4.016337582749852</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>3.116411510085124</v>
+        <v>3.542489123553511</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>0.6540092482774584</v>
+        <v>0.861648352393537</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>-0.3558044793630449</v>
+        <v>-0.4031977083364949</v>
       </c>
       <c r="G24" s="6" t="n">
-        <v>0.7762886968206303</v>
+        <v>0.8026102360806505</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.463124984049385</v>
+        <v>0.5704345192991604</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.06367998216033742</v>
+        <v>0.09338289255574836</v>
       </c>
       <c r="J24" s="6" t="n">
-        <v>-0.04215985852053287</v>
+        <v>-0.04786994386272873</v>
       </c>
     </row>
     <row r="25">
@@ -1337,7 +1337,7 @@
         <v>-0.3844445512311098</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>-1.308499066565441</v>
+        <v>-1.30849906656544</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>-0.01159071009961216</v>
@@ -1349,7 +1349,7 @@
         <v>-0.04068655495439919</v>
       </c>
       <c r="J25" s="6" t="n">
-        <v>-0.1703090435176585</v>
+        <v>-0.1703090435176584</v>
       </c>
     </row>
     <row r="26">
@@ -1360,28 +1360,28 @@
         </is>
       </c>
       <c r="C26" s="5" t="n">
-        <v>-2.774544489599597</v>
+        <v>-2.656835001747661</v>
       </c>
       <c r="D26" s="5" t="n">
-        <v>-3.097577530085459</v>
+        <v>-2.85798461122363</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>-3.54824676020366</v>
+        <v>-3.251302093946402</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>-3.629976622279492</v>
+        <v>-3.480318309539853</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>-0.3380475415250594</v>
+        <v>-0.3269689225600174</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>-0.3893022592081116</v>
+        <v>-0.3791509781359591</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>-0.3298752733944466</v>
+        <v>-0.3025439644410933</v>
       </c>
       <c r="J26" s="6" t="n">
-        <v>-0.4019949309325589</v>
+        <v>-0.3900265206691609</v>
       </c>
     </row>
     <row r="27">
@@ -1392,28 +1392,28 @@
         </is>
       </c>
       <c r="C27" s="5" t="n">
-        <v>2.493500895384767</v>
+        <v>2.401405756293436</v>
       </c>
       <c r="D27" s="5" t="n">
-        <v>2.030014320624525</v>
+        <v>1.850373407982127</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>2.362272243308392</v>
+        <v>2.553387502895509</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>0.7927834849040938</v>
+        <v>0.7418631813866192</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>0.4516692969968233</v>
+        <v>0.4564163420179604</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>0.4024425413075503</v>
+        <v>0.3703545880676574</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>0.2898631039048973</v>
+        <v>0.3128838561008084</v>
       </c>
       <c r="J27" s="6" t="n">
-        <v>0.1247994090582354</v>
+        <v>0.1121425454904739</v>
       </c>
     </row>
     <row r="28">
@@ -1437,7 +1437,7 @@
         <v>-0.3867964775495711</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>-1.488587795418173</v>
+        <v>-1.488587795418174</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.1985130720634242</v>
@@ -1449,7 +1449,7 @@
         <v>-0.04409985258740275</v>
       </c>
       <c r="J28" s="6" t="n">
-        <v>-0.1598938452210607</v>
+        <v>-0.1598938452210609</v>
       </c>
     </row>
     <row r="29">
@@ -1460,28 +1460,28 @@
         </is>
       </c>
       <c r="C29" s="5" t="n">
-        <v>-0.07718657270353292</v>
+        <v>-0.0007360622200036495</v>
       </c>
       <c r="D29" s="5" t="n">
-        <v>-0.1639766876976408</v>
+        <v>-0.2267833149609997</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>-1.983642874450155</v>
+        <v>-1.735075531164425</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>-2.881634321833509</v>
+        <v>-2.670451585719348</v>
       </c>
       <c r="G29" s="6" t="n">
-        <v>-0.008555191444737938</v>
+        <v>0.0007485658029931595</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>-0.02026078349674085</v>
+        <v>-0.02939839498546132</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>-0.2118683207635292</v>
+        <v>-0.1860183766658149</v>
       </c>
       <c r="J29" s="6" t="n">
-        <v>-0.2817169448875185</v>
+        <v>-0.2640747528055437</v>
       </c>
     </row>
     <row r="30">
@@ -1492,28 +1492,28 @@
         </is>
       </c>
       <c r="C30" s="5" t="n">
-        <v>2.18287150955579</v>
+        <v>2.252140859785278</v>
       </c>
       <c r="D30" s="5" t="n">
-        <v>2.471082675164852</v>
+        <v>2.56749418471044</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>0.9123697693209081</v>
+        <v>0.9912166174817275</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>-0.3803016030473732</v>
+        <v>-0.3940544357277033</v>
       </c>
       <c r="G30" s="6" t="n">
-        <v>0.4298690840248303</v>
+        <v>0.4403981079057042</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.3594339211334102</v>
+        <v>0.3701756156136768</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.1108599524239427</v>
+        <v>0.1184848296036898</v>
       </c>
       <c r="J30" s="6" t="n">
-        <v>-0.04583636840150284</v>
+        <v>-0.0452155065555826</v>
       </c>
     </row>
     <row r="31">
